--- a/results/TLS_Handshake_Results.xlsx
+++ b/results/TLS_Handshake_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahar\Documents\GitHub\Hybrid-Cryptography\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6EAFC0-EB9B-4E8C-8D92-BEF232953903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2982930-3E48-4D34-95F4-B7CD5806D712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{46681D4E-B002-4204-956F-99C8E3E148FB}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Classic</t>
   </si>
   <si>
-    <t>Hybrid_1</t>
-  </si>
-  <si>
-    <t>Hybrid_2</t>
+    <t>Hybrid</t>
   </si>
 </sst>
 </file>
@@ -420,7 +417,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,138 +426,109 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>6409</v>
-      </c>
-      <c r="C3" s="1">
-        <v>14731</v>
-      </c>
+        <v>5605</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="E3" s="1">
-        <v>9195</v>
+        <v>31151</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>5711</v>
-      </c>
-      <c r="C4" s="1">
-        <v>11882</v>
-      </c>
+        <v>5882</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="E4" s="1">
-        <v>15771</v>
+        <v>30069</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>4817</v>
-      </c>
-      <c r="C5" s="1">
-        <v>15408</v>
-      </c>
+        <v>5452</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="E5" s="1">
-        <v>12402</v>
+        <v>13970</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>5518</v>
-      </c>
-      <c r="C6" s="1">
-        <v>15454</v>
-      </c>
+        <v>6429</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="E6" s="1">
-        <v>13116</v>
+        <v>17692</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>5519</v>
-      </c>
-      <c r="C7" s="1">
-        <v>14374</v>
-      </c>
+        <v>5202</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="E7" s="1">
-        <v>12152</v>
+        <v>12839</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>5793</v>
-      </c>
-      <c r="C8" s="1">
-        <v>24332</v>
-      </c>
+        <v>8716</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="E8" s="1">
-        <v>11452</v>
+        <v>14533</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>6187</v>
-      </c>
-      <c r="C9" s="1">
-        <v>15525</v>
-      </c>
+        <v>6537</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="E9" s="1">
-        <v>11504</v>
+        <v>14532</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>5404</v>
-      </c>
-      <c r="C10" s="1">
-        <v>14679</v>
-      </c>
+        <v>5463</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="E10" s="1">
-        <v>10603</v>
+        <v>22677</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>7305</v>
-      </c>
-      <c r="C11" s="1">
-        <v>15126</v>
-      </c>
+        <v>8270</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="E11" s="1">
-        <v>9000</v>
+        <v>15902</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>6058</v>
-      </c>
-      <c r="C12" s="1">
-        <v>13327</v>
-      </c>
+        <v>6011</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="E12" s="1">
-        <v>14405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E13" s="1"/>
+        <v>12153</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <f>AVERAGE(A3:A12)</f>
-        <v>5872.1</v>
-      </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C3:C13)</f>
-        <v>15483.8</v>
-      </c>
+        <f>MEDIAN(A3:A12)</f>
+        <v>5946.5</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="E14" s="1">
-        <f>AVERAGE(E3:E12)</f>
-        <v>11960</v>
+        <f>MEDIAN(E3:E12)</f>
+        <v>15217.5</v>
       </c>
     </row>
   </sheetData>

--- a/results/TLS_Handshake_Results.xlsx
+++ b/results/TLS_Handshake_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahar\Documents\GitHub\Hybrid-Cryptography\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2982930-3E48-4D34-95F4-B7CD5806D712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7C5681-CE50-48F4-82A2-C678B3AF68CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{46681D4E-B002-4204-956F-99C8E3E148FB}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2040E7-04F9-4830-967A-F7E9E1AA9E4D}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,15 +520,95 @@
         <v>12153</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>13153</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16309</v>
+      </c>
+    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <f>MEDIAN(A3:A12)</f>
-        <v>5946.5</v>
+        <v>11626</v>
       </c>
       <c r="C14" s="1"/>
       <c r="E14" s="1">
-        <f>MEDIAN(E3:E12)</f>
-        <v>15217.5</v>
+        <v>18365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>8566</v>
+      </c>
+      <c r="E15" s="1">
+        <v>17282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>13526</v>
+      </c>
+      <c r="E16" s="1">
+        <v>16753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>5486</v>
+      </c>
+      <c r="E17" s="1">
+        <v>17989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>8906</v>
+      </c>
+      <c r="E18" s="1">
+        <v>17265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>13214</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>6997</v>
+      </c>
+      <c r="E20" s="1">
+        <v>15726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>6690</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>7028</v>
+      </c>
+      <c r="E22" s="1">
+        <v>16696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f>MEDIAN(A3:A22)</f>
+        <v>6843.5</v>
+      </c>
+      <c r="E24" s="1">
+        <f>MEDIAN(E3:E22)</f>
+        <v>17009</v>
       </c>
     </row>
   </sheetData>
